--- a/validation/model_validation.xlsx
+++ b/validation/model_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/geosafi-consav/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027FDBD-2518-3B49-88C3-7AB28A225DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3854061A-CEFB-104A-8501-1BA597449C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="760" windowWidth="30240" windowHeight="17900" activeTab="5" xr2:uid="{BDD9DEFF-AA57-C24D-80AC-0DD3523FF1B7}"/>
+    <workbookView xWindow="59240" yWindow="2760" windowWidth="34960" windowHeight="22280" xr2:uid="{BDD9DEFF-AA57-C24D-80AC-0DD3523FF1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="demand" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18043D21-A608-6A47-8F0D-D02CCFBA3955}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4499,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12374AE-69A7-AF48-BE99-4D727705CFB2}">
   <dimension ref="A2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F18" sqref="A16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
